--- a/Document/画面仕様書.xlsx
+++ b/Document/画面仕様書.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takeda ryota\Documents\ConvertTool\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D035AD35-AA0B-444E-B149-ABF419E50212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC235DCB-28E1-48BB-9A99-6CEAE5B23F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{EB8B6B99-791A-4E4B-BE7C-CDDA03B0D442}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{EB8B6B99-791A-4E4B-BE7C-CDDA03B0D442}"/>
   </bookViews>
   <sheets>
     <sheet name="画面仕様書" sheetId="1" r:id="rId1"/>
+    <sheet name="試験成績" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="282">
   <si>
     <t>画面仕様書</t>
     <rPh sb="0" eb="2">
@@ -216,6 +217,796 @@
     <rPh sb="18" eb="20">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>00000016</t>
+  </si>
+  <si>
+    <t>00000017</t>
+  </si>
+  <si>
+    <t>00000018</t>
+  </si>
+  <si>
+    <t>00000019</t>
+  </si>
+  <si>
+    <t>00000020</t>
+  </si>
+  <si>
+    <t>00000021</t>
+  </si>
+  <si>
+    <t>00000022</t>
+  </si>
+  <si>
+    <t>00000023</t>
+  </si>
+  <si>
+    <t>00000024</t>
+  </si>
+  <si>
+    <t>00000025</t>
+  </si>
+  <si>
+    <t>00000026</t>
+  </si>
+  <si>
+    <t>00000027</t>
+  </si>
+  <si>
+    <t>00000028</t>
+  </si>
+  <si>
+    <t>00000029</t>
+  </si>
+  <si>
+    <t>00000030</t>
+  </si>
+  <si>
+    <t>00000031</t>
+  </si>
+  <si>
+    <t>00000032</t>
+  </si>
+  <si>
+    <t>00000033</t>
+  </si>
+  <si>
+    <t>00000034</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>00000039</t>
+  </si>
+  <si>
+    <t>00000040</t>
+  </si>
+  <si>
+    <t>00000041</t>
+  </si>
+  <si>
+    <t>00000042</t>
+  </si>
+  <si>
+    <t>00000043</t>
+  </si>
+  <si>
+    <t>00000044</t>
+  </si>
+  <si>
+    <t>00000045</t>
+  </si>
+  <si>
+    <t>00000046</t>
+  </si>
+  <si>
+    <t>00000047</t>
+  </si>
+  <si>
+    <t>00000048</t>
+  </si>
+  <si>
+    <t>00000049</t>
+  </si>
+  <si>
+    <t>00000050</t>
+  </si>
+  <si>
+    <t>00000051</t>
+  </si>
+  <si>
+    <t>00000052</t>
+  </si>
+  <si>
+    <t>00000053</t>
+  </si>
+  <si>
+    <t>00000054</t>
+  </si>
+  <si>
+    <t>00000055</t>
+  </si>
+  <si>
+    <t>00000056</t>
+  </si>
+  <si>
+    <t>00000057</t>
+  </si>
+  <si>
+    <t>00000058</t>
+  </si>
+  <si>
+    <t>00000059</t>
+  </si>
+  <si>
+    <t>00000060</t>
+  </si>
+  <si>
+    <t>00000061</t>
+  </si>
+  <si>
+    <t>00000062</t>
+  </si>
+  <si>
+    <t>00000063</t>
+  </si>
+  <si>
+    <t>00000064</t>
+  </si>
+  <si>
+    <t>00000065</t>
+  </si>
+  <si>
+    <t>00000066</t>
+  </si>
+  <si>
+    <t>00000067</t>
+  </si>
+  <si>
+    <t>00000068</t>
+  </si>
+  <si>
+    <t>00000069</t>
+  </si>
+  <si>
+    <t>00000070</t>
+  </si>
+  <si>
+    <t>00000071</t>
+  </si>
+  <si>
+    <t>00000072</t>
+  </si>
+  <si>
+    <t>00000073</t>
+  </si>
+  <si>
+    <t>00000074</t>
+  </si>
+  <si>
+    <t>00000075</t>
+  </si>
+  <si>
+    <t>00000076</t>
+  </si>
+  <si>
+    <t>00000077</t>
+  </si>
+  <si>
+    <t>00000078</t>
+  </si>
+  <si>
+    <t>00000079</t>
+  </si>
+  <si>
+    <t>00000080</t>
+  </si>
+  <si>
+    <t>00000081</t>
+  </si>
+  <si>
+    <t>00000082</t>
+  </si>
+  <si>
+    <t>00000083</t>
+  </si>
+  <si>
+    <t>00000084</t>
+  </si>
+  <si>
+    <t>00000085</t>
+  </si>
+  <si>
+    <t>00000086</t>
+  </si>
+  <si>
+    <t>00000087</t>
+  </si>
+  <si>
+    <t>00000088</t>
+  </si>
+  <si>
+    <t>00000089</t>
+  </si>
+  <si>
+    <t>00000090</t>
+  </si>
+  <si>
+    <t>00000091</t>
+  </si>
+  <si>
+    <t>00000092</t>
+  </si>
+  <si>
+    <t>00000093</t>
+  </si>
+  <si>
+    <t>00000094</t>
+  </si>
+  <si>
+    <t>00000095</t>
+  </si>
+  <si>
+    <t>00000096</t>
+  </si>
+  <si>
+    <t>00000097</t>
+  </si>
+  <si>
+    <t>00000098</t>
+  </si>
+  <si>
+    <t>00000099</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>00:00:00,000-&gt;00:00:00,000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>00:00:00,017-&gt;00:00:00,017</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>00:00:00,033-&gt;00:00:00,033</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>00:00:00,050-&gt;00:00:00,050</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>00:00:00,067-&gt;00:00:00,067</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>00:00:00,083-&gt;00:00:00,083</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>00:00:00,100-&gt;00:00:00,100</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>00:00:00,117-&gt;00:00:00,117</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>00:00:00,133-&gt;00:00:00,133</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>00:00:00,150-&gt;00:00:00,150</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>00:00:00,167-&gt;00:00:00,167</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>00:00:00,183-&gt;00:00:00,183</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>00:00:00,200-&gt;00:00:00,200</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>00:00:00,217-&gt;00:00:00,217</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>00:00:00,233-&gt;00:00:00,233</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>00:00:00,250-&gt;00:00:00,250</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>00:00:00,267-&gt;00:00:00,267</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>00:00:00,283-&gt;00:00:00,283</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>00:00:00,300-&gt;00:00:00,300</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>00:00:00,317-&gt;00:00:00,317</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>00:00:00,333-&gt;00:00:00,333</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>00:00:00,350-&gt;00:00:00,350</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>00:00:00,367-&gt;00:00:00,367</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>00:00:00,383-&gt;00:00:00,383</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>00:00:00,400-&gt;00:00:00,400</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>00:00:00,417-&gt;00:00:00,417</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>00:00:00,433-&gt;00:00:00,433</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>00:00:00,450-&gt;00:00:00,450</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>00:00:00,467-&gt;00:00:00,467</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>00:00:00,483-&gt;00:00:00,483</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>00:00:00,500-&gt;00:00:00,500</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>00:00:00,517-&gt;00:00:00,517</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>00:00:00,533-&gt;00:00:00,533</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>00:00:00,550-&gt;00:00:00,550</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>00:00:00,567-&gt;00:00:00,567</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>00:00:00,583-&gt;00:00:00,583</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>00:00:00,600-&gt;00:00:00,600</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>00:00:00,617-&gt;00:00:00,617</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>00:00:00,633-&gt;00:00:00,633</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>00:00:00,650-&gt;00:00:00,650</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>00:00:00,667-&gt;00:00:00,667</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>00:00:00,683-&gt;00:00:00,683</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>00:00:00,700-&gt;00:00:00,700</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>00:00:00,717-&gt;00:00:00,717</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>00:00:00,733-&gt;00:00:00,733</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>00:00:00,750-&gt;00:00:00,750</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>00:00:00,767-&gt;00:00:00,767</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>00:00:00,783-&gt;00:00:00,783</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>00:00:00,800-&gt;00:00:00,800</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>00:00:00,817-&gt;00:00:00,817</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>00:00:00,833-&gt;00:00:00,833</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>00:00:00,850-&gt;00:00:00,850</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>00:00:00,867-&gt;00:00:00,867</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>00:00:00,883-&gt;00:00:00,883</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>00:00:00,900-&gt;00:00:00,900</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>00:00:00,917-&gt;00:00:00,917</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>00:00:00,933-&gt;00:00:00,933</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>00:00:00,950-&gt;00:00:00,950</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>00:00:00,967-&gt;00:00:00,967</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>00:00:00,983-&gt;00:00:00,983</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>test_case.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>convert_text_202206112048.txt</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -271,11 +1062,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE60489-E137-49CB-B65A-87173F06CF64}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView topLeftCell="A66" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -1219,4 +2013,1732 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB953F-D12B-4315-9A92-36E5AE9203BC}">
+  <dimension ref="A1:D400"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="8.6640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D103" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D104" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D107" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D108" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D111" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D112" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D115" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D116" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D119" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D120" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D123" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D124" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D127" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D128" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D131" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D139" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D147" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D152" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D156" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D160" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D163" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D164" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D167" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D168" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D171" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D172" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D175" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D176" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D179" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D180" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D183" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D184" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D187" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D188" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D191" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D192" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D195" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D196" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D199" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D200" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D203" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D204" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D207" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D208" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D211" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D212" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D215" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D216" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D219" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D220" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D223" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D224" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D227" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D228" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D231" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D232" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D235" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D236" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D239" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D240" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D243" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D244" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D247" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D248" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D251" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D252" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D255" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D256" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D259" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D260" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D263" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D264" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D267" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D268" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D271" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D272" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D275" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D276" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D279" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D280" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D283" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D284" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D287" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D288" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D291" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D292" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D295" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D296" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D299" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D300" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D303" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D304" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D307" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D308" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D311" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D312" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D315" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D316" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D319" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D320" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D323" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D324" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D327" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D328" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D331" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D332" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D335" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D336" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D339" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D340" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D343" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D344" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D347" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D348" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D351" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D352" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D355" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D356" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D359" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D360" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D363" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D364" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D367" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D368" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D371" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D372" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D375" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D376" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D379" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D380" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D383" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D384" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D387" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D388" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D391" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D392" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D395" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D396" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D399" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D400" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>